--- a/waterPropConvect.xlsx
+++ b/waterPropConvect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C1200A-0F1E-4D17-850C-E6B2B3B492D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBD145-C97F-4915-B59E-9B9BFBAABD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{4C2C835D-D9FE-48A2-8CF4-DC955837A2E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nu</t>
   </si>
@@ -82,12 +82,24 @@
   <si>
     <t>h (w/m2/k)</t>
   </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>intK</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,28 +107,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8.8000000000000007"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,119 +124,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +145,1038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13206758530183726"/>
+                  <c:y val="-3.19896471274424E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.0474999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2375000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3975000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBEB-4155-BB0C-3D2F2ED45E09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1498141264"/>
+        <c:axId val="1498140432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1498141264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="290"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498140432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1498140432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498141264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265112</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349F94AF-8F2E-ACF5-0CF0-CEB2FEF4AA6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C0A6E-B17C-47ED-B377-C8BC40455F60}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -566,17 +1491,18 @@
     <col min="5" max="5" width="6.40625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.2265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.31640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.31640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -625,8 +1551,17 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>295</v>
       </c>
@@ -636,7 +1571,7 @@
       </c>
       <c r="C2">
         <f>E2*F2*(H2-I2)*J2^3/L2/G2</f>
-        <v>-2152.3876823965643</v>
+        <v>-2156.4136862895525</v>
       </c>
       <c r="D2">
         <v>6.62</v>
@@ -649,7 +1584,7 @@
       </c>
       <c r="G2">
         <f>M2/N2/O2/1000</f>
-        <v>1.4537753418111306E-7</v>
+        <v>1.4524176154143741E-7</v>
       </c>
       <c r="H2">
         <f>A2</f>
@@ -666,13 +1601,13 @@
       </c>
       <c r="L2">
         <f>K2/N2</f>
-        <v>9.6188565697091269E-7</v>
+        <v>9.6098732178144406E-7</v>
       </c>
       <c r="M2">
         <v>0.60599999999999998</v>
       </c>
       <c r="N2">
-        <v>997</v>
+        <v>997.93200000000002</v>
       </c>
       <c r="O2">
         <v>4.181</v>
@@ -681,8 +1616,23 @@
         <f>B2*M2/J2</f>
         <v>#NUM!</v>
       </c>
+      <c r="Q2" t="e">
+        <f>P2*J2/M2</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R2">
+        <f>(A3-A2)*M2+0.5*(A3-A2)*(M3-M2)</f>
+        <v>3.0474999999999999</v>
+      </c>
+      <c r="S2">
+        <f>-0.0000387*T2^2+3.04*T2-2.56</f>
+        <v>875.78533000000004</v>
+      </c>
+      <c r="T2">
+        <v>290</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A3">
         <f>A2+5</f>
         <v>300</v>
@@ -706,7 +1656,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G18" si="1">M3/N3/O3/1000</f>
-        <v>1.4712719157712428E-7</v>
+        <v>1.4717581716807229E-7</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H18" si="2">A3</f>
@@ -723,13 +1673,13 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L18" si="3">K3/N3</f>
-        <v>8.5757271815446332E-7</v>
+        <v>8.5785614625333583E-7</v>
       </c>
       <c r="M3">
         <v>0.61299999999999999</v>
       </c>
       <c r="N3">
-        <v>997</v>
+        <v>996.67060000000004</v>
       </c>
       <c r="O3">
         <v>4.1790000000000003</v>
@@ -738,19 +1688,27 @@
         <f t="shared" ref="P3:P18" si="4">B3*M3/J3</f>
         <v>139.07437499999997</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q18" si="5">P3*J3/M3</f>
+        <v>0.68062499999999992</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R17" si="6">(A4-A3)*M3+0.5*(A4-A3)*(M4-M3)</f>
+        <v>3.0825</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A4">
-        <f t="shared" ref="A4:A18" si="5">A3+5</f>
+        <f t="shared" ref="A4:A18" si="7">A3+5</f>
         <v>305</v>
       </c>
       <c r="B4">
         <f>(0.825+0.387*C4^(1/6)/(1+(0.492/D4)^(9/16))^(8/27))^2</f>
-        <v>5.0359471313357576</v>
+        <v>5.0320486315386406</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3694.5715801266579</v>
+        <v>3681.0212070047342</v>
       </c>
       <c r="D4">
         <v>5.2</v>
@@ -763,7 +1721,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.4884289056734587E-7</v>
+        <v>1.4911659504973408E-7</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
@@ -780,34 +1738,42 @@
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>7.7131394182547648E-7</v>
+        <v>7.7273229699448347E-7</v>
       </c>
       <c r="M4">
         <v>0.62</v>
       </c>
       <c r="N4">
-        <v>997</v>
+        <v>995.17</v>
       </c>
       <c r="O4">
         <v>4.1779999999999999</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>1040.7624071427231</v>
+        <v>1039.9567171846522</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>5.0320486315386397</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>3.12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>310</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B3:B18" si="6">(0.825+0.387*C5^(1/6)/(1+(0.492/D5)^(9/16))^(8/27))^2</f>
-        <v>6.0885508858222819</v>
+        <f t="shared" ref="B5:B18" si="8">(0.825+0.387*C5^(1/6)/(1+(0.492/D5)^(9/16))^(8/27))^2</f>
+        <v>6.0790311860135677</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>9111.559738482827</v>
+        <v>9047.5170541722018</v>
       </c>
       <c r="D5">
         <v>4.62</v>
@@ -820,7 +1786,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.507634439940213E-7</v>
+        <v>1.5129609121585445E-7</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -837,34 +1803,42 @@
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>6.9709127382146437E-7</v>
+        <v>6.9955409717259352E-7</v>
       </c>
       <c r="M5">
         <v>0.628</v>
       </c>
       <c r="N5">
-        <v>997</v>
+        <v>993.49</v>
       </c>
       <c r="O5">
         <v>4.1779999999999999</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>1274.5366520987977</v>
+        <v>1272.5438616055069</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>6.0790311860135677</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>3.1550000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>315</v>
       </c>
       <c r="B6">
-        <f t="shared" si="6"/>
-        <v>6.923438397964162</v>
+        <f t="shared" si="8"/>
+        <v>6.9061932126958494</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>16501.340972599759</v>
+        <v>16322.415869767081</v>
       </c>
       <c r="D6">
         <v>4.16</v>
@@ -877,7 +1851,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>1.5216743794436671E-7</v>
+        <v>1.5299918880023157E-7</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -894,34 +1868,42 @@
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>6.3289869608826479E-7</v>
+        <v>6.3635813550091774E-7</v>
       </c>
       <c r="M6">
         <v>0.63400000000000001</v>
       </c>
       <c r="N6">
-        <v>997</v>
+        <v>991.58</v>
       </c>
       <c r="O6">
         <v>4.1790000000000003</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>1463.1533147697596</v>
+        <v>1459.5088322830563</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>6.9061932126958494</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>3.1850000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="B7">
-        <f t="shared" si="6"/>
-        <v>7.6503264117209051</v>
+        <f t="shared" si="8"/>
+        <v>7.6234314824303002</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>26002.424179822818</v>
+        <v>25613.72102834317</v>
       </c>
       <c r="D7">
         <v>3.77</v>
@@ -934,7 +1916,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>1.5357076012727175E-7</v>
+        <v>1.5473163538573244E-7</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
@@ -951,34 +1933,42 @@
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>5.7873620862587764E-7</v>
+        <v>5.8311100331473846E-7</v>
       </c>
       <c r="M7">
         <v>0.64</v>
       </c>
       <c r="N7">
-        <v>997</v>
+        <v>989.52</v>
       </c>
       <c r="O7">
         <v>4.18</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>1632.0696345004596</v>
+        <v>1626.3320495851306</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>7.6234314824302993</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>3.2125000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>325</v>
       </c>
       <c r="B8">
-        <f t="shared" si="6"/>
-        <v>8.3219558835434686</v>
+        <f t="shared" si="8"/>
+        <v>8.2831748930910116</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>38046.598749995137</v>
+        <v>37306.852016406825</v>
       </c>
       <c r="D8">
         <v>3.42</v>
@@ -991,7 +1981,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.5469651421984749E-7</v>
+        <v>1.5622270189938613E-7</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
@@ -1008,34 +1998,42 @@
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>5.2958876629889674E-7</v>
+        <v>5.3481352429957669E-7</v>
       </c>
       <c r="M8">
         <v>0.64500000000000002</v>
       </c>
       <c r="N8">
-        <v>997</v>
+        <v>987.26</v>
       </c>
       <c r="O8">
         <v>4.1820000000000004</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>1789.2205149618458</v>
+        <v>1780.8826020145675</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>8.2831748930910116</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>3.2375000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A9">
         <f>A8+5</f>
         <v>330</v>
       </c>
       <c r="B9">
-        <f t="shared" si="6"/>
-        <v>8.9382329144856261</v>
+        <f t="shared" si="8"/>
+        <v>8.8856039958040487</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>52348.158383228918</v>
+        <v>51082.119466413504</v>
       </c>
       <c r="D9">
         <v>3.15</v>
@@ -1048,7 +2046,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1.558211920656808E-7</v>
+        <v>1.5774033983112873E-7</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
@@ -1065,34 +2063,42 @@
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>4.9047141424272816E-7</v>
+        <v>4.9651223004051288E-7</v>
       </c>
       <c r="M9">
         <v>0.65</v>
       </c>
       <c r="N9">
-        <v>997</v>
+        <v>984.87</v>
       </c>
       <c r="O9">
         <v>4.1840000000000002</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>1936.6171314718858</v>
+        <v>1925.2141990908772</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>8.8856039958040487</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>3.2650000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>335</v>
       </c>
       <c r="B10">
-        <f t="shared" si="6"/>
-        <v>9.5177784906893166</v>
+        <f t="shared" si="8"/>
+        <v>9.4490734987244931</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>69439.22396109422</v>
+        <v>67408.035799760459</v>
       </c>
       <c r="D10">
         <v>2.88</v>
@@ -1105,7 +2111,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.5718440558177158E-7</v>
+        <v>1.5953502699252406E-7</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
@@ -1122,34 +2128,42 @@
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>4.5436308926780342E-7</v>
+        <v>4.6115788294937446E-7</v>
       </c>
       <c r="M10">
         <v>0.65600000000000003</v>
       </c>
       <c r="N10">
-        <v>997</v>
+        <v>982.31</v>
       </c>
       <c r="O10">
         <v>4.1859999999999999</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>2081.2208966307307</v>
+        <v>2066.1974050544222</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>9.4490734987244913</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>3.29</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>340</v>
       </c>
       <c r="B11">
-        <f t="shared" si="6"/>
-        <v>10.088282854846501</v>
+        <f t="shared" si="8"/>
+        <v>10.001073262083526</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>89964.262907476354</v>
+        <v>86851.487771743428</v>
       </c>
       <c r="D11">
         <v>2.66</v>
@@ -1162,7 +2176,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1.5806732518472324E-7</v>
+        <v>1.6087497265125464E-7</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
@@ -1179,34 +2193,42 @@
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>4.2126379137412237E-7</v>
+        <v>4.2874642711310741E-7</v>
       </c>
       <c r="M11">
         <v>0.66</v>
       </c>
       <c r="N11">
-        <v>997</v>
+        <v>979.6</v>
       </c>
       <c r="O11">
         <v>4.1879999999999997</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>2219.4222280662302</v>
+        <v>2200.2361176583759</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>10.001073262083526</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>3.3100000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>345</v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
-        <v>10.644360775965799</v>
+        <f t="shared" si="8"/>
+        <v>10.53626804971764</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>114340.86692967909</v>
+        <v>109745.54421800832</v>
       </c>
       <c r="D12">
         <v>2.4500000000000002</v>
@@ -1219,7 +2241,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1.5891147553852204E-7</v>
+        <v>1.6220437068666458E-7</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
@@ -1236,34 +2258,42 @@
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>3.9017051153460385E-7</v>
+        <v>3.982554568164135E-7</v>
       </c>
       <c r="M12">
         <v>0.66400000000000003</v>
       </c>
       <c r="N12">
-        <v>997</v>
+        <v>976.76</v>
       </c>
       <c r="O12">
         <v>4.1909999999999998</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>2355.951851747097</v>
+        <v>2332.0273283375041</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>10.53626804971764</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>3.33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
-        <v>11.166402486307243</v>
+        <f t="shared" si="8"/>
+        <v>11.035248175307842</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>141233.12328290267</v>
+        <v>134733.89581567081</v>
       </c>
       <c r="D13">
         <v>2.29</v>
@@ -1276,7 +2306,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>1.5971633613594061E-7</v>
+        <v>1.6352312832082153E-7</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
@@ -1293,34 +2323,42 @@
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>3.6609829488465395E-7</v>
+        <v>3.7482414072849381E-7</v>
       </c>
       <c r="M13">
         <v>0.66800000000000004</v>
       </c>
       <c r="N13">
-        <v>997</v>
+        <v>973.79</v>
       </c>
       <c r="O13">
         <v>4.1950000000000003</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>2486.3856202844127</v>
+        <v>2457.181927035213</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>11.035248175307842</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>3.3475000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A14">
         <f>A13+5</f>
         <v>355</v>
       </c>
       <c r="B14">
-        <f t="shared" si="6"/>
-        <v>11.67752449154219</v>
+        <f t="shared" si="8"/>
+        <v>11.520820312945</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>172154.92794255525</v>
+        <v>163188.76413659775</v>
       </c>
       <c r="D14">
         <v>2.14</v>
@@ -1333,7 +2371,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>1.6028079475387346E-7</v>
+        <v>1.6462511447487025E-7</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -1350,34 +2388,42 @@
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>3.4403209628886658E-7</v>
+        <v>3.5335689045936394E-7</v>
       </c>
       <c r="M14">
         <v>0.67100000000000004</v>
       </c>
       <c r="N14">
-        <v>997</v>
+        <v>970.69</v>
       </c>
       <c r="O14">
         <v>4.1989999999999998</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>2611.872977941603</v>
+        <v>2576.8234766620321</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>11.520820312945002</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>3.3625000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
-        <v>12.255423829849082</v>
+        <f t="shared" si="8"/>
+        <v>12.069250075781925</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>211972.28843605597</v>
+        <v>199597.36692666126</v>
       </c>
       <c r="D15">
         <v>2.02</v>
@@ -1390,7 +2436,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>1.6084417897995673E-7</v>
+        <v>1.6575532470904935E-7</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
@@ -1407,34 +2453,42 @@
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>3.24974924774323E-7</v>
+        <v>3.3489756682446817E-7</v>
       </c>
       <c r="M15">
         <v>0.67400000000000004</v>
       </c>
       <c r="N15">
-        <v>997</v>
+        <v>967.46</v>
       </c>
       <c r="O15">
         <v>4.2030000000000003</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>2753.385220439427</v>
+        <v>2711.5581836923388</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>12.069250075781923</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>3.3774999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>365</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
-        <v>12.668123184888048</v>
+        <f t="shared" si="8"/>
+        <v>12.452688813964352</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>245608.38021068275</v>
+        <v>229675.69990600977</v>
       </c>
       <c r="D16">
         <v>1.91</v>
@@ -1447,7 +2501,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>1.6132979599287291E-7</v>
+        <v>1.6683172904295552E-7</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
@@ -1464,34 +2518,42 @@
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>3.0692076228686058E-7</v>
+        <v>3.1738787702775588E-7</v>
       </c>
       <c r="M16">
         <v>0.67700000000000005</v>
       </c>
       <c r="N16">
-        <v>997</v>
+        <v>964.12</v>
       </c>
       <c r="O16">
         <v>4.2089999999999996</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>2858.773132056403</v>
+        <v>2810.1567756846221</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>12.45268881396435</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>3.39</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
-        <v>13.13352100477822</v>
+        <f t="shared" si="8"/>
+        <v>12.885299573620665</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>288107.04643200606</v>
+        <v>267498.32222068083</v>
       </c>
       <c r="D17">
         <v>1.8</v>
@@ -1504,7 +2566,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1.616144113403333E-7</v>
+        <v>1.6772449525993283E-7</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
@@ -1521,34 +2583,42 @@
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>2.8986960882647942E-7</v>
+        <v>3.0082857975600614E-7</v>
       </c>
       <c r="M17">
         <v>0.67900000000000005</v>
       </c>
       <c r="N17">
-        <v>997</v>
+        <v>960.68</v>
       </c>
       <c r="O17">
         <v>4.2140000000000004</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>2972.5535874148045</v>
+        <v>2916.3728034961441</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>12.885299573620664</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>3.3975000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
-        <v>13.564259493634182</v>
+        <f t="shared" si="8"/>
+        <v>13.282809610417551</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>328890.30408213398</v>
+        <v>303244.66154463589</v>
       </c>
       <c r="D18">
         <v>1.76</v>
@@ -1561,7 +2631,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>1.6173728679517332E-7</v>
+        <v>1.6843762397349719E-7</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
@@ -1578,518 +2648,39 @@
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>2.79839518555667E-7</v>
+        <v>2.9143251091566216E-7</v>
       </c>
       <c r="M18">
         <v>0.68</v>
       </c>
       <c r="N18">
-        <v>997</v>
+        <v>957.34</v>
       </c>
       <c r="O18">
         <v>4.2169999999999996</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>3074.5654852237485</v>
+        <v>3010.7701783613115</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>13.282809610417551</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F24" s="2">
-        <v>25</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.99704700000000002</v>
-      </c>
-      <c r="H24" s="3">
-        <v>997.05</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1.9346000000000001</v>
-      </c>
-      <c r="J24" s="3">
-        <v>62.243600000000001</v>
-      </c>
-      <c r="K24" s="3">
-        <v>8.3208000000000002</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9.7776999999999994</v>
-      </c>
-      <c r="M24" s="3">
-        <v>62.244</v>
-      </c>
-      <c r="N24" s="4">
-        <v>2.57</v>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="Q20" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F25" s="5">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.9956488</v>
-      </c>
-      <c r="H25" s="1">
-        <v>995.65</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1.9319</v>
-      </c>
-      <c r="J25" s="1">
-        <v>62.156300000000002</v>
-      </c>
-      <c r="K25" s="1">
-        <v>8.3091000000000008</v>
-      </c>
-      <c r="L25" s="1">
-        <v>9.7639999999999993</v>
-      </c>
-      <c r="M25" s="1">
-        <v>62.155999999999999</v>
-      </c>
-      <c r="N25" s="6">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F26" s="5">
-        <v>35</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.99403260000000004</v>
-      </c>
-      <c r="H26" s="1">
-        <v>994.03</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.9287000000000001</v>
-      </c>
-      <c r="J26" s="1">
-        <v>62.055399999999999</v>
-      </c>
-      <c r="K26" s="1">
-        <v>8.2956000000000003</v>
-      </c>
-      <c r="L26" s="1">
-        <v>9.7481000000000009</v>
-      </c>
-      <c r="M26" s="1">
-        <v>62.055</v>
-      </c>
-      <c r="N26" s="6">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F27" s="5">
-        <v>40</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.99221519999999996</v>
-      </c>
-      <c r="H27" s="1">
-        <v>992.22</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1.9252</v>
-      </c>
-      <c r="J27" s="1">
-        <v>61.942</v>
-      </c>
-      <c r="K27" s="1">
-        <v>8.2804000000000002</v>
-      </c>
-      <c r="L27" s="1">
-        <v>9.7302999999999997</v>
-      </c>
-      <c r="M27" s="1">
-        <v>61.942</v>
-      </c>
-      <c r="N27" s="6">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F28" s="5">
-        <v>45</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.99021000000000003</v>
-      </c>
-      <c r="H28" s="1">
-        <v>990.21</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.9213</v>
-      </c>
-      <c r="J28" s="1">
-        <v>61.816800000000001</v>
-      </c>
-      <c r="K28" s="1">
-        <v>8.2637</v>
-      </c>
-      <c r="L28" s="1">
-        <v>9.7105999999999995</v>
-      </c>
-      <c r="M28" s="1">
-        <v>61.817</v>
-      </c>
-      <c r="N28" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F29" s="5">
-        <v>50</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.98804000000000003</v>
-      </c>
-      <c r="H29" s="1">
-        <v>988.04</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1.9171</v>
-      </c>
-      <c r="J29" s="1">
-        <v>61.6813</v>
-      </c>
-      <c r="K29" s="1">
-        <v>8.2455999999999996</v>
-      </c>
-      <c r="L29" s="1">
-        <v>9.6893999999999991</v>
-      </c>
-      <c r="M29" s="1">
-        <v>61.680999999999997</v>
-      </c>
-      <c r="N29" s="6">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F30" s="5">
-        <v>55</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.98568999999999996</v>
-      </c>
-      <c r="H30" s="1">
-        <v>985.69</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1.9126000000000001</v>
-      </c>
-      <c r="J30" s="1">
-        <v>61.534599999999998</v>
-      </c>
-      <c r="K30" s="1">
-        <v>8.2260000000000009</v>
-      </c>
-      <c r="L30" s="1">
-        <v>9.6662999999999997</v>
-      </c>
-      <c r="M30" s="1">
-        <v>61.534999999999997</v>
-      </c>
-      <c r="N30" s="6">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F31" s="5">
-        <v>60</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.98319999999999996</v>
-      </c>
-      <c r="H31" s="1">
-        <v>983.2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1.9077</v>
-      </c>
-      <c r="J31" s="1">
-        <v>61.379199999999997</v>
-      </c>
-      <c r="K31" s="1">
-        <v>8.2051999999999996</v>
-      </c>
-      <c r="L31" s="1">
-        <v>9.6418999999999997</v>
-      </c>
-      <c r="M31" s="1">
-        <v>61.378999999999998</v>
-      </c>
-      <c r="N31" s="6">
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="F32" s="5">
-        <v>65</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.98055000000000003</v>
-      </c>
-      <c r="H32" s="1">
-        <v>980.55</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1.9026000000000001</v>
-      </c>
-      <c r="J32" s="1">
-        <v>61.213700000000003</v>
-      </c>
-      <c r="K32" s="1">
-        <v>8.1830999999999996</v>
-      </c>
-      <c r="L32" s="1">
-        <v>9.6158999999999999</v>
-      </c>
-      <c r="M32" s="1">
-        <v>61.213999999999999</v>
-      </c>
-      <c r="N32" s="6">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F33" s="5">
-        <v>70</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.97775999999999996</v>
-      </c>
-      <c r="H33" s="1">
-        <v>977.76</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1.8972</v>
-      </c>
-      <c r="J33" s="1">
-        <v>61.0396</v>
-      </c>
-      <c r="K33" s="1">
-        <v>8.1598000000000006</v>
-      </c>
-      <c r="L33" s="1">
-        <v>9.5885999999999996</v>
-      </c>
-      <c r="M33" s="1">
-        <v>61.04</v>
-      </c>
-      <c r="N33" s="6">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F34" s="5">
-        <v>75</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.97484000000000004</v>
-      </c>
-      <c r="H34" s="1">
-        <v>974.84</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.8915</v>
-      </c>
-      <c r="J34" s="1">
-        <v>60.857300000000002</v>
-      </c>
-      <c r="K34" s="1">
-        <v>8.1354000000000006</v>
-      </c>
-      <c r="L34" s="1">
-        <v>9.5599000000000007</v>
-      </c>
-      <c r="M34" s="1">
-        <v>60.856999999999999</v>
-      </c>
-      <c r="N34" s="6">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F35" s="5">
-        <v>80</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.97179000000000004</v>
-      </c>
-      <c r="H35" s="1">
-        <v>971.79</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1.8855999999999999</v>
-      </c>
-      <c r="J35" s="1">
-        <v>60.666899999999998</v>
-      </c>
-      <c r="K35" s="1">
-        <v>8.11</v>
-      </c>
-      <c r="L35" s="1">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="M35" s="1">
-        <v>60.667000000000002</v>
-      </c>
-      <c r="N35" s="6">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F36" s="5">
-        <v>85</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.96860999999999997</v>
-      </c>
-      <c r="H36" s="1">
-        <v>968.61</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.8794</v>
-      </c>
-      <c r="J36" s="1">
-        <v>60.468299999999999</v>
-      </c>
-      <c r="K36" s="1">
-        <v>8.0833999999999993</v>
-      </c>
-      <c r="L36" s="1">
-        <v>9.4987999999999992</v>
-      </c>
-      <c r="M36" s="1">
-        <v>60.468000000000004</v>
-      </c>
-      <c r="N36" s="6">
-        <v>6.44</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F37" s="5">
-        <v>90</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.96531</v>
-      </c>
-      <c r="H37" s="1">
-        <v>965.31</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.873</v>
-      </c>
-      <c r="J37" s="1">
-        <v>60.262300000000003</v>
-      </c>
-      <c r="K37" s="1">
-        <v>8.0558999999999994</v>
-      </c>
-      <c r="L37" s="1">
-        <v>9.4664999999999999</v>
-      </c>
-      <c r="M37" s="1">
-        <v>60.262</v>
-      </c>
-      <c r="N37" s="6">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F38" s="5">
-        <v>95</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.96189000000000002</v>
-      </c>
-      <c r="H38" s="1">
-        <v>961.89</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.8664000000000001</v>
-      </c>
-      <c r="J38" s="1">
-        <v>60.0488</v>
-      </c>
-      <c r="K38" s="1">
-        <v>8.0274000000000001</v>
-      </c>
-      <c r="L38" s="1">
-        <v>9.4329000000000001</v>
-      </c>
-      <c r="M38" s="1">
-        <v>60.048999999999999</v>
-      </c>
-      <c r="N38" s="6">
-        <v>6.87</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.75">
-      <c r="F39" s="5">
-        <v>100</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.95835000000000004</v>
-      </c>
-      <c r="H39" s="1">
-        <v>958.35</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1.8594999999999999</v>
-      </c>
-      <c r="J39" s="1">
-        <v>59.827800000000003</v>
-      </c>
-      <c r="K39" s="1">
-        <v>7.9977999999999998</v>
-      </c>
-      <c r="L39" s="1">
-        <v>9.3981999999999992</v>
-      </c>
-      <c r="M39" s="1">
-        <v>59.828000000000003</v>
-      </c>
-      <c r="N39" s="6">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="F40" s="7">
-        <v>110</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0.95094999999999996</v>
-      </c>
-      <c r="H40" s="8">
-        <v>950.95</v>
-      </c>
-      <c r="I40" s="8">
-        <v>1.8451</v>
-      </c>
-      <c r="J40" s="8">
-        <v>59.365900000000003</v>
-      </c>
-      <c r="K40" s="8">
-        <v>7.9360999999999997</v>
-      </c>
-      <c r="L40" s="8">
-        <v>9.3255999999999997</v>
-      </c>
-      <c r="M40" s="8">
-        <v>59.366</v>
-      </c>
-      <c r="N40" s="9">
-        <v>8.01</v>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="Q21">
+        <v>875.78499999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/waterPropConvect.xlsx
+++ b/waterPropConvect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBD145-C97F-4915-B59E-9B9BFBAABD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E538DCC6-821F-40BC-868A-69790A38D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{4C2C835D-D9FE-48A2-8CF4-DC955837A2E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C2C835D-D9FE-48A2-8CF4-DC955837A2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nu</t>
   </si>
@@ -89,10 +91,13 @@
     <t>intK</t>
   </si>
   <si>
-    <t>x</t>
+    <t>c2</t>
   </si>
   <si>
-    <t>c2</t>
+    <t>k/ro</t>
+  </si>
+  <si>
+    <t>k/ro dT</t>
   </si>
 </sst>
 </file>
@@ -332,57 +337,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$17</c:f>
+              <c:f>Sheet1!$T$2:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.0474999999999999</c:v>
+                  <c:v>3.0557588623753096E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0825</c:v>
+                  <c:v>3.0951421851579076E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.12</c:v>
+                  <c:v>3.1378105080440721E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1550000000000002</c:v>
+                  <c:v>3.1787466977400191E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1850000000000001</c:v>
+                  <c:v>3.2154046147713231E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2125000000000004</c:v>
+                  <c:v>3.2502539381389856E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2375000000000003</c:v>
+                  <c:v>3.2832723029916884E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2650000000000001</c:v>
+                  <c:v>3.3194980121103706E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.29</c:v>
+                  <c:v>3.3538950211354003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3100000000000005</c:v>
+                  <c:v>3.3838572575281643E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.33</c:v>
+                  <c:v>3.4144451021341435E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3475000000000001</c:v>
+                  <c:v>3.4431009474645662E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3625000000000003</c:v>
+                  <c:v>3.4698262135802863E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3774999999999999</c:v>
+                  <c:v>3.4971609432348357E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.39</c:v>
+                  <c:v>3.5224644264178926E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3975000000000004</c:v>
+                  <c:v>3.5427312083039868E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,15 +1148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>265112</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68262</xdr:rowOff>
+      <xdr:colOff>522287</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1478,31 +1483,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C0A6E-B17C-47ED-B377-C8BC40455F60}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.40625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.31640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.31640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1558,10 +1560,13 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>295</v>
       </c>
@@ -1625,14 +1630,15 @@
         <v>3.0474999999999999</v>
       </c>
       <c r="S2">
-        <f>-0.0000387*T2^2+3.04*T2-2.56</f>
-        <v>875.78533000000004</v>
+        <f>M2/N2</f>
+        <v>6.0725580500474983E-4</v>
       </c>
       <c r="T2">
-        <v>290</v>
+        <f>(A3-A2)*S2+0.5*(A3-A2)*(S3-S2)</f>
+        <v>3.0557588623753096E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+5</f>
         <v>300</v>
@@ -1696,10 +1702,18 @@
         <f t="shared" ref="R3:R17" si="6">(A4-A3)*M3+0.5*(A4-A3)*(M4-M3)</f>
         <v>3.0825</v>
       </c>
+      <c r="S3">
+        <f>M3/N3</f>
+        <v>6.1504773994537415E-4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T17" si="7">(A4-A3)*S3+0.5*(A4-A3)*(S4-S3)</f>
+        <v>3.0951421851579076E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A18" si="7">A3+5</f>
+        <f t="shared" ref="A4:A18" si="8">A3+5</f>
         <v>305</v>
       </c>
       <c r="B4">
@@ -1761,14 +1775,22 @@
         <f t="shared" si="6"/>
         <v>3.12</v>
       </c>
+      <c r="S4">
+        <f t="shared" ref="S3:S18" si="9">M4/N4</f>
+        <v>6.2300913411778892E-4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="7"/>
+        <v>3.1378105080440721E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B18" si="8">(0.825+0.387*C5^(1/6)/(1+(0.492/D5)^(9/16))^(8/27))^2</f>
+        <f t="shared" ref="B5:B18" si="10">(0.825+0.387*C5^(1/6)/(1+(0.492/D5)^(9/16))^(8/27))^2</f>
         <v>6.0790311860135677</v>
       </c>
       <c r="C5">
@@ -1826,14 +1848,22 @@
         <f t="shared" si="6"/>
         <v>3.1550000000000002</v>
       </c>
+      <c r="S5">
+        <f t="shared" si="9"/>
+        <v>6.3211506909983993E-4</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>3.1787466977400191E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="B6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.9061932126958494</v>
       </c>
       <c r="C6">
@@ -1891,14 +1921,22 @@
         <f t="shared" si="6"/>
         <v>3.1850000000000001</v>
       </c>
+      <c r="S6">
+        <f t="shared" si="9"/>
+        <v>6.3938360999616771E-4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>3.2154046147713231E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="B7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.6234314824303002</v>
       </c>
       <c r="C7">
@@ -1956,14 +1994,22 @@
         <f t="shared" si="6"/>
         <v>3.2125000000000004</v>
       </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>6.4677823591236157E-4</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>3.2502539381389856E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="B8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.2831748930910116</v>
       </c>
       <c r="C8">
@@ -2021,14 +2067,22 @@
         <f t="shared" si="6"/>
         <v>3.2375000000000003</v>
       </c>
+      <c r="S8">
+        <f t="shared" si="9"/>
+        <v>6.533233393432328E-4</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>3.2832723029916884E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8+5</f>
         <v>330</v>
       </c>
       <c r="B9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.8856039958040487</v>
       </c>
       <c r="C9">
@@ -2086,14 +2140,22 @@
         <f t="shared" si="6"/>
         <v>3.2650000000000001</v>
       </c>
+      <c r="S9">
+        <f t="shared" si="9"/>
+        <v>6.5998558185344257E-4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>3.3194980121103706E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="B10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.4490734987244931</v>
       </c>
       <c r="C10">
@@ -2151,14 +2213,22 @@
         <f t="shared" si="6"/>
         <v>3.29</v>
       </c>
+      <c r="S10">
+        <f t="shared" si="9"/>
+        <v>6.6781362299070564E-4</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>3.3538950211354003E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="B11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.001073262083526</v>
       </c>
       <c r="C11">
@@ -2216,14 +2286,22 @@
         <f t="shared" si="6"/>
         <v>3.3100000000000005</v>
       </c>
+      <c r="S11">
+        <f t="shared" si="9"/>
+        <v>6.7374438546345444E-4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>3.3838572575281643E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>345</v>
       </c>
       <c r="B12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.53626804971764</v>
       </c>
       <c r="C12">
@@ -2281,14 +2359,22 @@
         <f t="shared" si="6"/>
         <v>3.33</v>
       </c>
+      <c r="S12">
+        <f t="shared" si="9"/>
+        <v>6.7979851754781115E-4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>3.4144451021341435E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="B13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.035248175307842</v>
       </c>
       <c r="C13">
@@ -2346,14 +2432,22 @@
         <f t="shared" si="6"/>
         <v>3.3475000000000001</v>
       </c>
+      <c r="S13">
+        <f t="shared" si="9"/>
+        <v>6.8597952330584633E-4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>3.4431009474645662E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A13+5</f>
         <v>355</v>
       </c>
       <c r="B14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11.520820312945</v>
       </c>
       <c r="C14">
@@ -2411,14 +2505,22 @@
         <f t="shared" si="6"/>
         <v>3.3625000000000003</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="9"/>
+        <v>6.9126085567998018E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>3.4698262135802863E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="B15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.069250075781925</v>
       </c>
       <c r="C15">
@@ -2476,14 +2578,22 @@
         <f t="shared" si="6"/>
         <v>3.3774999999999999</v>
       </c>
+      <c r="S15">
+        <f t="shared" si="9"/>
+        <v>6.9666962975213447E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>3.4971609432348357E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>365</v>
       </c>
       <c r="B16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.452688813964352</v>
       </c>
       <c r="C16">
@@ -2541,14 +2651,22 @@
         <f t="shared" si="6"/>
         <v>3.39</v>
       </c>
+      <c r="S16">
+        <f t="shared" si="9"/>
+        <v>7.0219474754179979E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>3.5224644264178926E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.885299573620665</v>
       </c>
       <c r="C17">
@@ -2606,14 +2724,22 @@
         <f t="shared" si="6"/>
         <v>3.3975000000000004</v>
       </c>
+      <c r="S17">
+        <f t="shared" si="9"/>
+        <v>7.0679102302535714E-4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>3.5427312083039868E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.282809610417551</v>
       </c>
       <c r="C18">
@@ -2667,13 +2793,17 @@
         <f t="shared" si="5"/>
         <v>13.282809610417551</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="9"/>
+        <v>7.1030146029623753E-4</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>875.78499999999997</v>
       </c>

--- a/waterPropConvect.xlsx
+++ b/waterPropConvect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E538DCC6-821F-40BC-868A-69790A38D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883ACDB-9E07-4D02-950C-2ED1AF1B9F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C2C835D-D9FE-48A2-8CF4-DC955837A2E0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nu</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>intK</t>
-  </si>
-  <si>
-    <t>c2</t>
   </si>
   <si>
     <t>k/ro</t>
@@ -1481,27 +1478,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C0A6E-B17C-47ED-B377-C8BC40455F60}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1560,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1776,7 +1778,7 @@
         <v>3.12</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S3:S18" si="9">M4/N4</f>
+        <f t="shared" ref="S4:S18" si="9">M4/N4</f>
         <v>6.2300913411778892E-4</v>
       </c>
       <c r="T4">
@@ -2798,14 +2800,24 @@
         <v>7.1030146029623753E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q20" t="s">
-        <v>18</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" ref="N22:O22" si="11">AVERAGE(N3:N18)</f>
+        <v>979.45691250000016</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>4.1913749999999999</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGE(P3:P18)</f>
+        <v>2020.3023020466096</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q21">
-        <v>875.78499999999997</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>P22*Q28/N22/O22/0.006</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/waterPropConvect.xlsx
+++ b/waterPropConvect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883ACDB-9E07-4D02-950C-2ED1AF1B9F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BD0178-1643-4099-8F9C-FA9704F84DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C2C835D-D9FE-48A2-8CF4-DC955837A2E0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nu</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>k/ro dT</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C0A6E-B17C-47ED-B377-C8BC40455F60}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1524,7 @@
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1567,8 +1585,11 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>295</v>
       </c>
@@ -1624,7 +1645,7 @@
         <v>#NUM!</v>
       </c>
       <c r="Q2" t="e">
-        <f>P2*J2/M2</f>
+        <f>P2*V2/M2/2</f>
         <v>#NUM!</v>
       </c>
       <c r="R2">
@@ -1639,8 +1660,15 @@
         <f>(A3-A2)*S2+0.5*(A3-A2)*(S3-S2)</f>
         <v>3.0557588623753096E-3</v>
       </c>
+      <c r="U2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V2" t="e">
+        <f>P2/N2/O2/0.006</f>
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+5</f>
         <v>300</v>
@@ -1697,11 +1725,11 @@
         <v>139.07437499999997</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="5">P3*J3/M3</f>
-        <v>0.68062499999999992</v>
+        <f>P3*U3/M3/2</f>
+        <v>0.79406249999999989</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R17" si="6">(A4-A3)*M3+0.5*(A4-A3)*(M4-M3)</f>
+        <f t="shared" ref="R3:R17" si="5">(A4-A3)*M3+0.5*(A4-A3)*(M4-M3)</f>
         <v>3.0825</v>
       </c>
       <c r="S3">
@@ -1709,13 +1737,24 @@
         <v>6.1504773994537415E-4</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T17" si="7">(A4-A3)*S3+0.5*(A4-A3)*(S4-S3)</f>
+        <f t="shared" ref="T3:T17" si="6">(A4-A3)*S3+0.5*(A4-A3)*(S4-S3)</f>
         <v>3.0951421851579076E-3</v>
       </c>
+      <c r="U3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V3">
+        <f>P3/N3/O3/0.003</f>
+        <v>11.130171173335462</v>
+      </c>
+      <c r="W3">
+        <f>1/V3</f>
+        <v>8.9845877877934063E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A18" si="8">A3+5</f>
+        <f t="shared" ref="A4:A18" si="7">A3+5</f>
         <v>305</v>
       </c>
       <c r="B4">
@@ -1770,11 +1809,11 @@
         <v>1039.9567171846522</v>
       </c>
       <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="8">P4*U4/M4/2</f>
+        <v>5.8707234034617466</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="5"/>
-        <v>5.0320486315386397</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="6"/>
         <v>3.12</v>
       </c>
       <c r="S4">
@@ -1782,17 +1821,28 @@
         <v>6.2300913411778892E-4</v>
       </c>
       <c r="T4">
+        <f t="shared" si="6"/>
+        <v>3.1378105080440721E-3</v>
+      </c>
+      <c r="U4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V18" si="10">P4/N4/O4/0.003</f>
+        <v>83.373550895523991</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W18" si="11">1/V4</f>
+        <v>1.1994211464653909E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
         <f t="shared" si="7"/>
-        <v>3.1378105080440721E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B18" si="10">(0.825+0.387*C5^(1/6)/(1+(0.492/D5)^(9/16))^(8/27))^2</f>
+        <f t="shared" ref="B5:B18" si="12">(0.825+0.387*C5^(1/6)/(1+(0.492/D5)^(9/16))^(8/27))^2</f>
         <v>6.0790311860135677</v>
       </c>
       <c r="C5">
@@ -1843,11 +1893,11 @@
         <v>1272.5438616055069</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="8"/>
+        <v>7.0922030503491627</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="5"/>
-        <v>6.0790311860135677</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
         <v>3.1550000000000002</v>
       </c>
       <c r="S5">
@@ -1855,17 +1905,28 @@
         <v>6.3211506909983993E-4</v>
       </c>
       <c r="T5">
+        <f t="shared" si="6"/>
+        <v>3.1787466977400191E-3</v>
+      </c>
+      <c r="U5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="10"/>
+        <v>102.19262853590364</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="11"/>
+        <v>9.7854416147899262E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="7"/>
-        <v>3.1787466977400191E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="B6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.9061932126958494</v>
       </c>
       <c r="C6">
@@ -1916,11 +1977,11 @@
         <v>1459.5088322830563</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="8"/>
+        <v>8.0572254148118247</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="5"/>
-        <v>6.9061932126958494</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
         <v>3.1850000000000001</v>
       </c>
       <c r="S6">
@@ -1928,17 +1989,28 @@
         <v>6.3938360999616771E-4</v>
       </c>
       <c r="T6">
+        <f t="shared" si="6"/>
+        <v>3.2154046147713231E-3</v>
+      </c>
+      <c r="U6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="10"/>
+        <v>117.40466213779223</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="11"/>
+        <v>8.5175493186663061E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f t="shared" si="7"/>
-        <v>3.2154046147713231E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="B7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.6234314824303002</v>
       </c>
       <c r="C7">
@@ -1989,11 +2061,11 @@
         <v>1626.3320495851306</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="8"/>
+        <v>8.8940033961686833</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="5"/>
-        <v>7.6234314824302993</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
         <v>3.2125000000000004</v>
       </c>
       <c r="S7">
@@ -2001,17 +2073,28 @@
         <v>6.4677823591236157E-4</v>
       </c>
       <c r="T7">
+        <f t="shared" si="6"/>
+        <v>3.2502539381389856E-3</v>
+      </c>
+      <c r="U7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>131.06511339194654</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>7.6297954056586221E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="7"/>
-        <v>3.2502539381389856E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="B8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.2831748930910116</v>
       </c>
       <c r="C8">
@@ -2062,11 +2145,11 @@
         <v>1780.8826020145675</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="8"/>
+        <v>9.6637040419395142</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="5"/>
-        <v>8.2831748930910116</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
         <v>3.2375000000000003</v>
       </c>
       <c r="S8">
@@ -2074,17 +2157,28 @@
         <v>6.533233393432328E-4</v>
       </c>
       <c r="T8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.2832723029916884E-3</v>
       </c>
+      <c r="U8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>143.77999578931517</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="11"/>
+        <v>6.9550704498929595E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8+5</f>
         <v>330</v>
       </c>
       <c r="B9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.8856039958040487</v>
       </c>
       <c r="C9">
@@ -2135,11 +2229,11 @@
         <v>1925.2141990908772</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="8"/>
+        <v>10.366537995104723</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="5"/>
-        <v>8.8856039958040487</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="6"/>
         <v>3.2650000000000001</v>
       </c>
       <c r="S9">
@@ -2147,17 +2241,28 @@
         <v>6.5998558185344257E-4</v>
       </c>
       <c r="T9">
+        <f t="shared" si="6"/>
+        <v>3.3194980121103706E-3</v>
+      </c>
+      <c r="U9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V9">
+        <f>P9/N9/O9/0.003</f>
+        <v>155.73535487810733</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>6.4211495249918756E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f t="shared" si="7"/>
-        <v>3.3194980121103706E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="B10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.4490734987244931</v>
       </c>
       <c r="C10">
@@ -2208,11 +2313,11 @@
         <v>2066.1974050544222</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="8"/>
+        <v>11.023919081845239</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="5"/>
-        <v>9.4490734987244913</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="6"/>
         <v>3.29</v>
       </c>
       <c r="S10">
@@ -2220,17 +2325,28 @@
         <v>6.6781362299070564E-4</v>
       </c>
       <c r="T10">
+        <f t="shared" si="6"/>
+        <v>3.3538950211354003E-3</v>
+      </c>
+      <c r="U10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>167.49535507481724</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>5.9703148159142537E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
         <f t="shared" si="7"/>
-        <v>3.3538950211354003E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="B11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.001073262083526</v>
       </c>
       <c r="C11">
@@ -2281,11 +2397,11 @@
         <v>2200.2361176583759</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="8"/>
+        <v>11.667918805764113</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="5"/>
-        <v>10.001073262083526</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="6"/>
         <v>3.3100000000000005</v>
       </c>
       <c r="S11">
@@ -2293,17 +2409,28 @@
         <v>6.7374438546345444E-4</v>
       </c>
       <c r="T11">
+        <f t="shared" si="6"/>
+        <v>3.3838572575281643E-3</v>
+      </c>
+      <c r="U11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>178.76915416898683</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="11"/>
+        <v>5.5938061834466162E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
         <f t="shared" si="7"/>
-        <v>3.3838572575281643E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="8"/>
         <v>345</v>
       </c>
       <c r="B12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.53626804971764</v>
       </c>
       <c r="C12">
@@ -2354,11 +2481,11 @@
         <v>2332.0273283375041</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="8"/>
+        <v>12.292312724670579</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="5"/>
-        <v>10.53626804971764</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
         <v>3.33</v>
       </c>
       <c r="S12">
@@ -2366,17 +2493,28 @@
         <v>6.7979851754781115E-4</v>
       </c>
       <c r="T12">
+        <f t="shared" si="6"/>
+        <v>3.4144451021341435E-3</v>
+      </c>
+      <c r="U12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>189.89208093227336</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>5.2661490415530209E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
         <f t="shared" si="7"/>
-        <v>3.4144451021341435E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="B13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11.035248175307842</v>
       </c>
       <c r="C13">
@@ -2427,11 +2565,11 @@
         <v>2457.181927035213</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="8"/>
+        <v>12.874456204525817</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="5"/>
-        <v>11.035248175307842</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
         <v>3.3475000000000001</v>
       </c>
       <c r="S13">
@@ -2439,17 +2577,28 @@
         <v>6.8597952330584633E-4</v>
       </c>
       <c r="T13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.4431009474645662E-3</v>
       </c>
+      <c r="U13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>200.50203371366396</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="11"/>
+        <v>4.9874805830054346E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>A13+5</f>
         <v>355</v>
       </c>
       <c r="B14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11.520820312945</v>
       </c>
       <c r="C14">
@@ -2500,11 +2649,11 @@
         <v>2576.8234766620321</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="8"/>
+        <v>13.44095703176917</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="5"/>
-        <v>11.520820312945002</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
         <v>3.3625000000000003</v>
       </c>
       <c r="S14">
@@ -2512,17 +2661,28 @@
         <v>6.9126085567998018E-4</v>
       </c>
       <c r="T14">
+        <f t="shared" si="6"/>
+        <v>3.4698262135802863E-3</v>
+      </c>
+      <c r="U14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>210.73515142922017</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>4.7452928152609177E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
         <f t="shared" si="7"/>
-        <v>3.4698262135802863E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="B15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.069250075781925</v>
       </c>
       <c r="C15">
@@ -2573,11 +2733,11 @@
         <v>2711.5581836923388</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>14.080791755078909</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="5"/>
-        <v>12.069250075781923</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
         <v>3.3774999999999999</v>
       </c>
       <c r="S15">
@@ -2585,17 +2745,28 @@
         <v>6.9666962975213447E-4</v>
       </c>
       <c r="T15">
+        <f t="shared" si="6"/>
+        <v>3.4971609432348357E-3</v>
+      </c>
+      <c r="U15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="10"/>
+        <v>222.28249614510568</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="11"/>
+        <v>4.4987797840240259E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f t="shared" si="7"/>
-        <v>3.4971609432348357E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="8"/>
         <v>365</v>
       </c>
       <c r="B16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.452688813964352</v>
       </c>
       <c r="C16">
@@ -2646,11 +2817,11 @@
         <v>2810.1567756846221</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="8"/>
+        <v>14.528136949625075</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="5"/>
-        <v>12.45268881396435</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="6"/>
         <v>3.39</v>
       </c>
       <c r="S16">
@@ -2658,17 +2829,28 @@
         <v>7.0219474754179979E-4</v>
       </c>
       <c r="T16">
+        <f t="shared" si="6"/>
+        <v>3.5224644264178926E-3</v>
+      </c>
+      <c r="U16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>230.83373400750492</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="11"/>
+        <v>4.3321224443195454E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f t="shared" si="7"/>
-        <v>3.5224644264178926E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="B17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.885299573620665</v>
       </c>
       <c r="C17">
@@ -2719,11 +2901,11 @@
         <v>2916.3728034961441</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="8"/>
+        <v>15.032849502557443</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="5"/>
-        <v>12.885299573620664</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
         <v>3.3975000000000004</v>
       </c>
       <c r="S17">
@@ -2731,17 +2913,28 @@
         <v>7.0679102302535714E-4</v>
       </c>
       <c r="T17">
+        <f t="shared" si="6"/>
+        <v>3.5427312083039868E-3</v>
+      </c>
+      <c r="U17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
+        <v>240.13115191761713</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="11"/>
+        <v>4.1643909672455758E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f t="shared" si="7"/>
-        <v>3.5427312083039868E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="B18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13.282809610417551</v>
       </c>
       <c r="C18">
@@ -2792,21 +2985,32 @@
         <v>3010.7701783613115</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="5"/>
-        <v>13.282809610417551</v>
+        <f t="shared" si="8"/>
+        <v>15.496611212153809</v>
       </c>
       <c r="S18">
         <f t="shared" si="9"/>
         <v>7.1030146029623753E-4</v>
       </c>
+      <c r="U18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>248.59165449678511</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>4.0226611871756633E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N22">
-        <f t="shared" ref="N22:O22" si="11">AVERAGE(N3:N18)</f>
+        <f t="shared" ref="N22:O22" si="13">AVERAGE(N3:N18)</f>
         <v>979.45691250000016</v>
       </c>
       <c r="O22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.1913749999999999</v>
       </c>
       <c r="P22">
@@ -2814,10 +3018,49 @@
         <v>2020.3023020466096</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>305-273</f>
+        <v>32</v>
+      </c>
+      <c r="W23">
+        <f>AVERAGE(W3:W18)</f>
+        <v>1.1545630842408295E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O28">
         <f>P22*Q28/N22/O22/0.006</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30">
+        <f>500/60</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
